--- a/RecodingDataSets/RecodingImages/codedimagedata.xlsx
+++ b/RecodingDataSets/RecodingImages/codedimagedata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmgco\Documents\GitHub\SML\SMLToolBox\RecodingDataSets\RecodingImages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmgco\Documents\GitHub\ACN5314\RecodingDataSets\RecodingImages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C689DEC-8F64-4C46-A0AF-C1AA4AF89072}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3AE81A-3AFC-407D-B3D7-23FFBA0D315F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9615" xr2:uid="{B3961FDA-0045-474A-9EF1-954EEC464C91}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9615" xr2:uid="{4D521DF6-BFF9-48E5-9493-CEBC905FD42C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A61B7D2-27C0-47F7-BEE3-029A1F802F52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB95BFFF-110B-4D97-910A-7560597FAF4C}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/RecodingDataSets/RecodingImages/codedimagedata.xlsx
+++ b/RecodingDataSets/RecodingImages/codedimagedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmgco\Documents\GitHub\ACN5314\RecodingDataSets\RecodingImages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3AE81A-3AFC-407D-B3D7-23FFBA0D315F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B5EDAB-7639-4411-8045-B3A5517232EE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9615" xr2:uid="{4D521DF6-BFF9-48E5-9493-CEBC905FD42C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9615" xr2:uid="{413F26F6-74A6-48A2-9E2B-19D2F26C4FB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB95BFFF-110B-4D97-910A-7560597FAF4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7711141-E966-48AD-A92A-EA020B9E5A73}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
